--- a/Data/Transmission/Figure 22 Firm Transmission Plans included in 2020 RNA Base Case.xlsx
+++ b/Data/Transmission/Figure 22 Firm Transmission Plans included in 2020 RNA Base Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C9DD85-552F-4D61-84D0-D25557394EDC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46378342-A1F0-4492-B4E1-697690CCC2BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table 1'!$A$1:$M$208</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666" uniqueCount="471">
   <si>
     <t>Number of circuits</t>
   </si>
@@ -305,16 +304,6 @@
     <t>Cortland</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Clarks
-Corners</t>
-    </r>
-  </si>
-  <si>
     <t>147MVA</t>
   </si>
   <si>
@@ -504,16 +493,6 @@
     <t>Ramapo (NY)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>NGRID/NYSE
-G</t>
-    </r>
-  </si>
-  <si>
     <t>Erie St</t>
   </si>
   <si>
@@ -562,29 +541,9 @@
     <t>Geres Lock</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Reconductoring 4/0CU &amp; 336 ACSR to 477
-ACCR (Line #8)</t>
-    </r>
-  </si>
-  <si>
     <t>Valley Stream</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>East Garden
-City</t>
-    </r>
-  </si>
-  <si>
     <t>Station 418</t>
   </si>
   <si>
@@ -627,16 +586,6 @@
     <t>206 MVA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Station 255
-(New Station)</t>
-    </r>
-  </si>
-  <si>
     <t>Stoner</t>
   </si>
   <si>
@@ -751,16 +700,6 @@
     <t>211 MVA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Packard-Gardenville Reactors, Packard-
-Erie / Niagara-Garenville Reconfiguration</t>
-    </r>
-  </si>
-  <si>
     <t>Arcade</t>
   </si>
   <si>
@@ -770,16 +709,6 @@
     <t>156MVA</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Gardenville-Arcade #151 Loop-in-and-out of
-NYSEG Big Tree</t>
-    </r>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -1002,16 +931,6 @@
     <t>Reconfiguration of Station</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Buchanan
-North</t>
-    </r>
-  </si>
-  <si>
     <t>Farragut</t>
   </si>
   <si>
@@ -1031,16 +950,6 @@
   </si>
   <si>
     <t>Westover</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Remove 115 substation and terminate existing lines to Oakdale 115 (short
-distance)</t>
-    </r>
   </si>
   <si>
     <t>Moses 230 kV</t>
@@ -1340,16 +1249,6 @@
   </si>
   <si>
     <t>Replace 7.0 miles of mainly 4/0 Cu conductor with 795kcmil ACSR 26/7</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>West
-Hempstead</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1369,16 +1268,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Caribi"/>
-      </rPr>
-      <t>Schaghticoke
-(New Station)</t>
-    </r>
-  </si>
-  <si>
     <t>West Nyack (NY)</t>
   </si>
   <si>
@@ -1557,6 +1446,24 @@
   </si>
   <si>
     <t>1314 MVA-LTE</t>
+  </si>
+  <si>
+    <t>Packard-Gardenville Reactors, Packard-Erie / Niagara-Garenville Reconfiguration</t>
+  </si>
+  <si>
+    <t>Reconductoring 4/0CU &amp; 336 ACSR to 477 ACCR (Line #8)</t>
+  </si>
+  <si>
+    <t>Clarks Corners</t>
+  </si>
+  <si>
+    <t>NGRID/NYSEG</t>
+  </si>
+  <si>
+    <t>Buchanan North</t>
+  </si>
+  <si>
+    <t>Remove 115 substation and terminate existing lines to Oakdale 115 (short distance)</t>
   </si>
 </sst>
 </file>
@@ -1997,11 +1904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:M208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2009,17 +1915,17 @@
     <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" customWidth="1"/>
-    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="14.83203125" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="1" customWidth="1"/>
     <col min="10" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="62.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.5" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="45">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>46</v>
       </c>
@@ -2226,7 +2132,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>38</v>
@@ -2314,7 +2220,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="D8" s="6">
         <v>5.5</v>
@@ -2434,10 +2340,10 @@
         <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="D11" s="5">
         <v>78</v>
@@ -2464,7 +2370,7 @@
         <v>1329</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>18</v>
@@ -2519,7 +2425,7 @@
         <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D13" s="4">
         <v>4.8099999999999996</v>
@@ -2554,13 +2460,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>152</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
@@ -2587,7 +2493,7 @@
         <v>940</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>18</v>
@@ -2595,10 +2501,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>40</v>
@@ -2628,7 +2534,7 @@
         <v>2120</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>18</v>
@@ -2636,10 +2542,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>41</v>
@@ -2669,7 +2575,7 @@
         <v>2120</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>18</v>
@@ -2680,7 +2586,7 @@
         <v>70</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>25</v>
@@ -2710,7 +2616,7 @@
         <v>1171</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>18</v>
@@ -2724,7 +2630,7 @@
         <v>75</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D18" s="4">
         <v>8.25</v>
@@ -2762,10 +2668,10 @@
         <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D19" s="4">
         <v>10.63</v>
@@ -2792,7 +2698,7 @@
         <v>1709</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>18</v>
@@ -2803,10 +2709,10 @@
         <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D20" s="4">
         <v>11</v>
@@ -2833,7 +2739,7 @@
         <v>1171</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>18</v>
@@ -2844,10 +2750,10 @@
         <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" s="4">
         <v>16.489999999999998</v>
@@ -2874,7 +2780,7 @@
         <v>1110</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>18</v>
@@ -2882,13 +2788,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D22" s="4">
         <v>17</v>
@@ -2915,7 +2821,7 @@
         <v>2120</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>18</v>
@@ -3167,15 +3073,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="22.5">
+    <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>93</v>
+      <c r="C29" s="3" t="s">
+        <v>467</v>
       </c>
       <c r="D29" s="6">
         <v>0.2</v>
@@ -3196,10 +3102,10 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>27</v>
@@ -3210,10 +3116,10 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>31</v>
@@ -3237,13 +3143,13 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="M30" s="9" t="s">
         <v>18</v>
@@ -3251,13 +3157,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>105</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>106</v>
       </c>
       <c r="D31" s="4">
         <v>1.34</v>
@@ -3278,13 +3184,13 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>108</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>18</v>
@@ -3292,13 +3198,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="4">
         <v>1.46</v>
@@ -3325,7 +3231,7 @@
         <v>2008</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M32" s="9" t="s">
         <v>18</v>
@@ -3333,13 +3239,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="3" t="s">
         <v>121</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>122</v>
       </c>
       <c r="D33" s="4">
         <v>2.0499999999999998</v>
@@ -3366,7 +3272,7 @@
         <v>1218</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>18</v>
@@ -3377,7 +3283,7 @@
         <v>59</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>32</v>
@@ -3415,13 +3321,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D35" s="4">
         <v>2.97</v>
@@ -3448,7 +3354,7 @@
         <v>2008</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>18</v>
@@ -3459,10 +3365,10 @@
         <v>59</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>128</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
@@ -3483,10 +3389,10 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K36" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="L36" s="3" t="s">
         <v>34</v>
@@ -3500,10 +3406,10 @@
         <v>59</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
@@ -3524,10 +3430,10 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K37" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>133</v>
       </c>
       <c r="L37" s="3" t="s">
         <v>35</v>
@@ -3544,7 +3450,7 @@
         <v>54</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D38" s="6">
         <v>3.4</v>
@@ -3565,13 +3471,13 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K38" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>138</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>139</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>18</v>
@@ -3585,7 +3491,7 @@
         <v>60</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D39" s="4">
         <v>3.5</v>
@@ -3606,10 +3512,10 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>37</v>
@@ -3626,7 +3532,7 @@
         <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D40" s="6">
         <v>3.7</v>
@@ -3647,13 +3553,13 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K40" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="L40" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>18</v>
@@ -3667,7 +3573,7 @@
         <v>54</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="6">
         <v>3.7</v>
@@ -3688,13 +3594,13 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K41" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="L41" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>18</v>
@@ -3702,13 +3608,13 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="D42" s="4">
         <v>4.62</v>
@@ -3735,18 +3641,18 @@
         <v>1245</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="22.5">
-      <c r="A43" s="8" t="s">
-        <v>157</v>
+    <row r="43" spans="1:13">
+      <c r="A43" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>43</v>
@@ -3770,10 +3676,10 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>42</v>
@@ -3784,13 +3690,13 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D44" s="4">
         <v>5.61</v>
@@ -3817,7 +3723,7 @@
         <v>1245</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>18</v>
@@ -3828,10 +3734,10 @@
         <v>59</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D45" s="4">
         <v>6.14</v>
@@ -3872,7 +3778,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D46" s="6">
         <v>6.3</v>
@@ -3893,10 +3799,10 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>45</v>
@@ -3905,15 +3811,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="22.5">
+    <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>415</v>
+      <c r="C47" s="3" t="s">
+        <v>407</v>
       </c>
       <c r="D47" s="4">
         <v>6.34</v>
@@ -3951,7 +3857,7 @@
         <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>88</v>
@@ -3981,7 +3887,7 @@
         <v>1380</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>18</v>
@@ -3992,10 +3898,10 @@
         <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D49" s="5">
         <v>7</v>
@@ -4022,7 +3928,7 @@
         <v>856</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>18</v>
@@ -4033,10 +3939,10 @@
         <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="5">
         <v>7</v>
@@ -4059,21 +3965,21 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="3" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="22.5">
+    <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D51" s="4">
         <v>7.14</v>
@@ -4099,8 +4005,8 @@
       <c r="K51" s="5">
         <v>955</v>
       </c>
-      <c r="L51" s="8" t="s">
-        <v>174</v>
+      <c r="L51" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>18</v>
@@ -4108,13 +4014,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D52" s="6">
         <v>7.6</v>
@@ -4135,13 +4041,13 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M52" s="9" t="s">
         <v>18</v>
@@ -4149,13 +4055,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="D53" s="4">
         <v>8.07</v>
@@ -4176,13 +4082,13 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>18</v>
@@ -4193,7 +4099,7 @@
         <v>59</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>69</v>
@@ -4231,13 +4137,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D55" s="4">
         <v>8.9600000000000009</v>
@@ -4264,7 +4170,7 @@
         <v>1245</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>18</v>
@@ -4275,10 +4181,10 @@
         <v>59</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D56" s="6">
         <v>9.1</v>
@@ -4299,13 +4205,13 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>18</v>
@@ -4316,10 +4222,10 @@
         <v>59</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D57" s="6">
         <v>9.1</v>
@@ -4340,13 +4246,13 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>18</v>
@@ -4357,7 +4263,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>66</v>
@@ -4381,27 +4287,27 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="22.5">
+    <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>191</v>
+        <v>99</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D59" s="4">
         <v>9.6</v>
@@ -4428,21 +4334,21 @@
         <v>1807</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="22.5">
+    <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D60" s="4">
         <v>9.81</v>
@@ -4469,21 +4375,21 @@
         <v>1708</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="22.5">
+    <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D61" s="4">
         <v>9.81</v>
@@ -4510,7 +4416,7 @@
         <v>1708</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>18</v>
@@ -4518,13 +4424,13 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D62" s="4">
         <v>10.029999999999999</v>
@@ -4551,7 +4457,7 @@
         <v>1245</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>18</v>
@@ -4562,10 +4468,10 @@
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D63" s="4">
         <v>10.24</v>
@@ -4586,13 +4492,13 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>18</v>
@@ -4600,13 +4506,13 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="D64" s="4">
         <v>10.3</v>
@@ -4627,13 +4533,13 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>18</v>
@@ -4644,10 +4550,10 @@
         <v>59</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D65" s="4">
         <v>11.05</v>
@@ -4682,13 +4588,13 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D66" s="4">
         <v>11.1</v>
@@ -4715,7 +4621,7 @@
         <v>1807</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>18</v>
@@ -4723,13 +4629,13 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D67" s="4">
         <v>12.1</v>
@@ -4750,13 +4656,13 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>18</v>
@@ -4767,7 +4673,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>61</v>
@@ -4808,10 +4714,10 @@
         <v>59</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D69" s="4">
         <v>12.75</v>
@@ -4832,13 +4738,13 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M69" s="9" t="s">
         <v>18</v>
@@ -4852,7 +4758,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D70" s="4">
         <v>14.31</v>
@@ -4890,10 +4796,10 @@
         <v>59</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D71" s="6">
         <v>15.7</v>
@@ -4914,10 +4820,10 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="9" t="s">
@@ -4929,10 +4835,10 @@
         <v>59</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D72" s="4">
         <v>17.329999999999998</v>
@@ -4953,13 +4859,13 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>18</v>
@@ -4973,7 +4879,7 @@
         <v>43</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D73" s="6">
         <v>20.5</v>
@@ -5000,7 +4906,7 @@
         <v>1346</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>18</v>
@@ -5014,7 +4920,7 @@
         <v>62</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D74" s="4">
         <v>21.69</v>
@@ -5055,7 +4961,7 @@
         <v>62</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D75" s="4">
         <v>21.72</v>
@@ -5117,13 +5023,13 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>18</v>
@@ -5131,13 +5037,13 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="D77" s="6">
         <v>26.4</v>
@@ -5158,13 +5064,13 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M77" s="9" t="s">
         <v>18</v>
@@ -5178,7 +5084,7 @@
         <v>60</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D78" s="4">
         <v>28.13</v>
@@ -5211,12 +5117,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="22.5">
+    <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>43</v>
@@ -5240,27 +5146,27 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>230</v>
+        <v>224</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>465</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="22.5">
+    <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D80" s="6">
         <v>28.6</v>
@@ -5281,13 +5187,13 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="L80" s="8" t="s">
-        <v>234</v>
+        <v>227</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="M80" s="9" t="s">
         <v>18</v>
@@ -5295,13 +5201,13 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="D81" s="6">
         <v>45.5</v>
@@ -5322,13 +5228,13 @@
         <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>18</v>
@@ -5342,7 +5248,7 @@
         <v>88</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" s="6">
         <v>56.5</v>
@@ -5363,13 +5269,13 @@
         <v>3</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>18</v>
@@ -5416,15 +5322,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="22.5">
+    <row r="84" spans="1:13">
       <c r="A84" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>176</v>
+      <c r="B84" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D84" s="4">
         <v>-2.92</v>
@@ -5457,7 +5363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="22.5">
+    <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
         <v>59</v>
       </c>
@@ -5465,7 +5371,7 @@
         <v>26</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D85" s="4">
         <v>0.93</v>
@@ -5503,10 +5409,10 @@
         <v>59</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D86" s="4">
         <v>0.93</v>
@@ -5547,7 +5453,7 @@
         <v>30</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D87" s="4">
         <v>0.97</v>
@@ -5580,15 +5486,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="22.5">
+    <row r="88" spans="1:13">
       <c r="A88" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>176</v>
+        <v>98</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D88" s="4">
         <v>1.95</v>
@@ -5623,13 +5529,13 @@
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C89" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
@@ -5660,13 +5566,13 @@
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>117</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>118</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
@@ -5693,7 +5599,7 @@
         <v>1723</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>18</v>
@@ -5704,7 +5610,7 @@
         <v>70</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>81</v>
@@ -5748,7 +5654,7 @@
         <v>25</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D92" s="4">
         <v>2.5</v>
@@ -5783,13 +5689,13 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D93" s="4">
         <v>3.2</v>
@@ -5816,7 +5722,7 @@
         <v>1312</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>18</v>
@@ -5827,10 +5733,10 @@
         <v>70</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="D94" s="4">
         <v>4</v>
@@ -5857,7 +5763,7 @@
         <v>1171</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>18</v>
@@ -5868,10 +5774,10 @@
         <v>70</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" s="4">
         <v>5.2</v>
@@ -5898,7 +5804,7 @@
         <v>1169</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>18</v>
@@ -5906,13 +5812,13 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D96" s="5">
         <v>7</v>
@@ -5943,10 +5849,10 @@
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>36</v>
@@ -5976,7 +5882,7 @@
         <v>1723</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>18</v>
@@ -5984,13 +5890,13 @@
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D98" s="4">
         <v>11.4</v>
@@ -6017,7 +5923,7 @@
         <v>1359</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>18</v>
@@ -6025,13 +5931,13 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D99" s="4">
         <v>12</v>
@@ -6058,7 +5964,7 @@
         <v>1141</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>18</v>
@@ -6066,13 +5972,13 @@
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D100" s="4">
         <v>12.46</v>
@@ -6099,7 +6005,7 @@
         <v>1359</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>18</v>
@@ -6154,7 +6060,7 @@
         <v>84</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D102" s="4">
         <v>1.82</v>
@@ -6181,7 +6087,7 @@
         <v>457</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>18</v>
@@ -6192,7 +6098,7 @@
         <v>70</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>85</v>
@@ -6274,7 +6180,7 @@
         <v>70</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>72</v>
@@ -6318,7 +6224,7 @@
         <v>71</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D106" s="4">
         <v>12.74</v>
@@ -6351,18 +6257,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:13" hidden="1">
+    <row r="107" spans="1:13">
       <c r="A107" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>56</v>
@@ -6380,30 +6286,30 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M107" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:13" hidden="1">
+    <row r="108" spans="1:13">
       <c r="A108" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>56</v>
@@ -6421,30 +6327,30 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M108" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:13" hidden="1">
+    <row r="109" spans="1:13">
       <c r="A109" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>1</v>
@@ -6453,39 +6359,39 @@
         <v>2019</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="110" spans="1:13" hidden="1">
+    <row r="110" spans="1:13">
       <c r="A110" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>63</v>
@@ -6501,30 +6407,30 @@
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:13" hidden="1">
+    <row r="111" spans="1:13">
       <c r="A111" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>63</v>
@@ -6542,30 +6448,30 @@
         <v>2</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:13" hidden="1">
+    <row r="112" spans="1:13">
       <c r="A112" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>63</v>
@@ -6574,39 +6480,39 @@
         <v>2020</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="113" spans="1:13" hidden="1">
+    <row r="113" spans="1:13">
       <c r="A113" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>56</v>
@@ -6622,30 +6528,30 @@
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M113" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:13" hidden="1">
+    <row r="114" spans="1:13">
       <c r="A114" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>63</v>
@@ -6660,33 +6566,33 @@
         <v>230</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="115" spans="1:13" hidden="1">
+    <row r="115" spans="1:13">
       <c r="A115" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>63</v>
@@ -6702,30 +6608,30 @@
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:13" hidden="1">
+    <row r="116" spans="1:13">
       <c r="A116" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>63</v>
@@ -6741,30 +6647,30 @@
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="22.5" hidden="1">
+    <row r="117" spans="1:13">
       <c r="A117" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>63</v>
@@ -6773,39 +6679,39 @@
         <v>2021</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="M117" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="118" spans="1:13" hidden="1">
+    <row r="118" spans="1:13">
       <c r="A118" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>63</v>
@@ -6823,30 +6729,30 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M118" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:13" hidden="1">
+    <row r="119" spans="1:13">
       <c r="A119" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>63</v>
@@ -6862,30 +6768,30 @@
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="M119" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:13" hidden="1">
+    <row r="120" spans="1:13">
       <c r="A120" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>63</v>
@@ -6900,33 +6806,33 @@
         <v>115</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M120" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:13" hidden="1">
+    <row r="121" spans="1:13">
       <c r="A121" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>63</v>
@@ -6941,33 +6847,33 @@
         <v>115</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M121" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:13" hidden="1">
+    <row r="122" spans="1:13">
       <c r="A122" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>63</v>
@@ -6982,33 +6888,33 @@
         <v>115</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M122" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:13" hidden="1">
+    <row r="123" spans="1:13">
       <c r="A123" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>63</v>
@@ -7017,39 +6923,39 @@
         <v>2023</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="M123" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:13" hidden="1">
+    <row r="124" spans="1:13">
       <c r="A124" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>56</v>
@@ -7058,39 +6964,39 @@
         <v>2023</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="M124" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:13" hidden="1">
+    <row r="125" spans="1:13">
       <c r="A125" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>63</v>
@@ -7105,33 +7011,33 @@
         <v>115</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M125" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:13" hidden="1">
+    <row r="126" spans="1:13">
       <c r="A126" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>63</v>
@@ -7146,33 +7052,33 @@
         <v>115</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M126" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="22.5" hidden="1">
+    <row r="127" spans="1:13" ht="22.5">
       <c r="A127" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>63</v>
@@ -7190,30 +7096,30 @@
         <v>2</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M127" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="22.5" hidden="1">
+    <row r="128" spans="1:13" ht="22.5">
       <c r="A128" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>63</v>
@@ -7231,30 +7137,30 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="M128" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:13" hidden="1">
+    <row r="129" spans="1:13">
       <c r="A129" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>63</v>
@@ -7270,30 +7176,30 @@
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="M129" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:13" hidden="1">
+    <row r="130" spans="1:13">
       <c r="A130" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E130" s="3" t="s">
         <v>63</v>
@@ -7308,33 +7214,33 @@
         <v>115</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M130" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:13" hidden="1">
+    <row r="131" spans="1:13">
       <c r="A131" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="E131" s="3" t="s">
         <v>63</v>
@@ -7354,24 +7260,24 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="3" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M131" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="22.5" hidden="1">
+    <row r="132" spans="1:13" ht="22.5">
       <c r="A132" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="E132" s="3" t="s">
         <v>56</v>
@@ -7395,24 +7301,24 @@
         <v>234</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="M132" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:13" hidden="1">
+    <row r="133" spans="1:13">
       <c r="A133" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E133" s="3" t="s">
         <v>63</v>
@@ -7430,27 +7336,27 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="M133" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" hidden="1">
+    <row r="134" spans="1:13">
       <c r="A134" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>17</v>
@@ -7469,27 +7375,27 @@
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="M134" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:13" hidden="1">
+    <row r="135" spans="1:13">
       <c r="A135" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>17</v>
@@ -7510,27 +7416,27 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="M135" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:13" hidden="1">
+    <row r="136" spans="1:13">
       <c r="A136" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>17</v>
@@ -7548,7 +7454,7 @@
         <v>115</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J136" s="5">
         <v>2000</v>
@@ -7557,24 +7463,24 @@
         <v>2000</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="M136" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:13" hidden="1">
+    <row r="137" spans="1:13">
       <c r="A137" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>1</v>
@@ -7592,10 +7498,10 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="L137" s="3" t="s">
         <v>8</v>
@@ -7604,18 +7510,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:13" hidden="1">
+    <row r="138" spans="1:13">
       <c r="A138" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>1</v>
@@ -7633,30 +7539,30 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="M138" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:13" hidden="1">
+    <row r="139" spans="1:13">
       <c r="A139" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E139" s="3" t="s">
         <v>63</v>
@@ -7674,30 +7580,30 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L139" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M139" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:13" hidden="1">
+    <row r="140" spans="1:13">
       <c r="A140" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E140" s="3" t="s">
         <v>63</v>
@@ -7715,10 +7621,10 @@
         <v>1</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L140" s="3" t="s">
         <v>8</v>
@@ -7727,18 +7633,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:13" hidden="1">
+    <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E141" s="3" t="s">
         <v>63</v>
@@ -7756,30 +7662,30 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M141" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:13" hidden="1">
+    <row r="142" spans="1:13">
       <c r="A142" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E142" s="3" t="s">
         <v>63</v>
@@ -7797,30 +7703,30 @@
         <v>1</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M142" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:13" hidden="1">
+    <row r="143" spans="1:13">
       <c r="A143" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>63</v>
@@ -7838,27 +7744,27 @@
         <v>1</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M143" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:13" hidden="1">
+    <row r="144" spans="1:13">
       <c r="A144" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>9</v>
@@ -7879,10 +7785,10 @@
         <v>1</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="L144" s="3" t="s">
         <v>9</v>
@@ -7891,15 +7797,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:13" hidden="1">
+    <row r="145" spans="1:13">
       <c r="A145" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>9</v>
@@ -7920,10 +7826,10 @@
         <v>1</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L145" s="3" t="s">
         <v>9</v>
@@ -7932,15 +7838,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:13" hidden="1">
+    <row r="146" spans="1:13">
       <c r="A146" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>21</v>
@@ -7959,27 +7865,27 @@
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="M146" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147" spans="1:13" hidden="1">
+    <row r="147" spans="1:13">
       <c r="A147" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>448</v>
+        <v>437</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>21</v>
@@ -8000,21 +7906,21 @@
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M147" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148" spans="1:13" hidden="1">
+    <row r="148" spans="1:13">
       <c r="A148" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>21</v>
@@ -8035,21 +7941,21 @@
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="M148" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="149" spans="1:13" hidden="1">
+    <row r="149" spans="1:13">
       <c r="A149" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>10</v>
@@ -8068,10 +7974,10 @@
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L149" s="3" t="s">
         <v>10</v>
@@ -8080,15 +7986,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:13" hidden="1">
+    <row r="150" spans="1:13">
       <c r="A150" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>10</v>
@@ -8107,27 +8013,27 @@
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="M150" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:13" hidden="1">
+    <row r="151" spans="1:13">
       <c r="A151" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>10</v>
@@ -8146,27 +8052,27 @@
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="M151" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:13" hidden="1">
+    <row r="152" spans="1:13">
       <c r="A152" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>10</v>
@@ -8187,27 +8093,27 @@
         <v>1</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="M152" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="22.5" hidden="1">
+    <row r="153" spans="1:13">
       <c r="A153" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B153" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>309</v>
+        <v>296</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>469</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>10</v>
@@ -8226,27 +8132,27 @@
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>450</v>
+        <v>439</v>
       </c>
       <c r="M153" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:13" hidden="1">
+    <row r="154" spans="1:13">
       <c r="A154" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>10</v>
@@ -8265,27 +8171,27 @@
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M154" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:13" hidden="1">
+    <row r="155" spans="1:13">
       <c r="A155" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>10</v>
@@ -8304,27 +8210,27 @@
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="M155" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="22.5" hidden="1">
+    <row r="156" spans="1:13" ht="22.5">
       <c r="A156" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>11</v>
@@ -8343,27 +8249,27 @@
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="M156" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="33.75" hidden="1">
+    <row r="157" spans="1:13" ht="22.5">
       <c r="A157" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>11</v>
@@ -8382,27 +8288,27 @@
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L157" s="8" t="s">
-        <v>317</v>
+        <v>195</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="M157" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="22.5" hidden="1">
+    <row r="158" spans="1:13" ht="22.5">
       <c r="A158" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>451</v>
+        <v>440</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>15</v>
@@ -8420,30 +8326,30 @@
         <v>230</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="M158" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" hidden="1">
+    <row r="159" spans="1:13">
       <c r="A159" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>12</v>
@@ -8464,25 +8370,25 @@
         <v>2</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L159" s="8"/>
       <c r="M159" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1">
+    <row r="160" spans="1:13">
       <c r="A160" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>13</v>
@@ -8503,30 +8409,30 @@
         <v>1</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="M160" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="22.5" hidden="1">
+    <row r="161" spans="1:13" ht="22.5">
       <c r="A161" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>63</v>
@@ -8550,24 +8456,24 @@
         <v>2866</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="M161" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:13" hidden="1">
+    <row r="162" spans="1:13">
       <c r="A162" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>1</v>
@@ -8583,30 +8489,30 @@
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M162" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:13" hidden="1">
+    <row r="163" spans="1:13">
       <c r="A163" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>1</v>
@@ -8622,30 +8528,30 @@
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="M163" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:13" hidden="1">
+    <row r="164" spans="1:13">
       <c r="A164" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>1</v>
@@ -8654,39 +8560,39 @@
         <v>2019</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I164" s="5">
         <v>2</v>
       </c>
       <c r="J164" s="3" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="L164" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M164" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:13" hidden="1">
+    <row r="165" spans="1:13">
       <c r="A165" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>1</v>
@@ -8695,39 +8601,39 @@
         <v>2019</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
       </c>
       <c r="J165" s="3" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="L165" s="3" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="M165" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="22.5" hidden="1">
+    <row r="166" spans="1:13" ht="22.5">
       <c r="A166" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>1</v>
@@ -8736,19 +8642,19 @@
         <v>2019</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="I166" s="5">
         <v>2</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L166" s="3" t="s">
         <v>6</v>
@@ -8757,18 +8663,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:13" hidden="1">
+    <row r="167" spans="1:13">
       <c r="A167" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E167" s="3" t="s">
         <v>56</v>
@@ -8777,19 +8683,19 @@
         <v>2019</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I167" s="5">
         <v>2</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L167" s="3" t="s">
         <v>6</v>
@@ -8798,18 +8704,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:13" hidden="1">
+    <row r="168" spans="1:13">
       <c r="A168" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E168" s="3" t="s">
         <v>63</v>
@@ -8818,10 +8724,10 @@
         <v>2020</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -8833,24 +8739,24 @@
         <v>728</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="M168" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:13" hidden="1">
+    <row r="169" spans="1:13">
       <c r="A169" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>56</v>
@@ -8859,10 +8765,10 @@
         <v>2020</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I169" s="5">
         <v>2</v>
@@ -8874,24 +8780,24 @@
         <v>726</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="M169" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1">
+    <row r="170" spans="1:13">
       <c r="A170" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E170" s="3" t="s">
         <v>63</v>
@@ -8900,39 +8806,39 @@
         <v>2020</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="I170" s="5">
         <v>1</v>
       </c>
       <c r="J170" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="L170" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="M170" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:13" hidden="1">
+    <row r="171" spans="1:13">
       <c r="A171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E171" s="3" t="s">
         <v>63</v>
@@ -8941,39 +8847,39 @@
         <v>2020</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I171" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J171" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L171" s="3" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="M171" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1">
+    <row r="172" spans="1:13">
       <c r="A172" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>56</v>
@@ -8982,39 +8888,39 @@
         <v>2020</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="I172" s="5">
         <v>1</v>
       </c>
       <c r="J172" s="3" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="L172" s="3" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M172" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1">
+    <row r="173" spans="1:13">
       <c r="A173" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E173" s="3" t="s">
         <v>56</v>
@@ -9023,39 +8929,39 @@
         <v>2020</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I173" s="5">
         <v>1</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M173" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:13" hidden="1">
+    <row r="174" spans="1:13">
       <c r="A174" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>63</v>
@@ -9064,10 +8970,10 @@
         <v>2020</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
@@ -9079,24 +8985,24 @@
         <v>731</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="M174" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:13" hidden="1">
+    <row r="175" spans="1:13">
       <c r="A175" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E175" s="3" t="s">
         <v>56</v>
@@ -9105,19 +9011,19 @@
         <v>2020</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="L175" s="3" t="s">
         <v>6</v>
@@ -9126,18 +9032,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="22.5" hidden="1">
+    <row r="176" spans="1:13">
       <c r="A176" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>191</v>
+        <v>99</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E176" s="3" t="s">
         <v>56</v>
@@ -9146,19 +9052,19 @@
         <v>2020</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I176" s="5">
         <v>1</v>
       </c>
       <c r="J176" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L176" s="3" t="s">
         <v>6</v>
@@ -9167,9 +9073,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:13" hidden="1">
+    <row r="177" spans="1:13">
       <c r="A177" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>38</v>
@@ -9178,7 +9084,7 @@
         <v>38</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E177" s="3" t="s">
         <v>56</v>
@@ -9187,19 +9093,19 @@
         <v>2020</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I177" s="5">
         <v>2</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L177" s="3" t="s">
         <v>6</v>
@@ -9208,18 +9114,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:13" hidden="1">
+    <row r="178" spans="1:13">
       <c r="A178" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E178" s="3" t="s">
         <v>63</v>
@@ -9228,39 +9134,39 @@
         <v>2021</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I178" s="3" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="J178" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="L178" s="3" t="s">
-        <v>457</v>
+        <v>446</v>
       </c>
       <c r="M178" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:13" hidden="1">
+    <row r="179" spans="1:13">
       <c r="A179" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E179" s="3" t="s">
         <v>63</v>
@@ -9276,30 +9182,30 @@
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="M179" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:13" hidden="1">
+    <row r="180" spans="1:13">
       <c r="A180" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E180" s="3" t="s">
         <v>63</v>
@@ -9308,39 +9214,39 @@
         <v>2021</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="M180" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:13" hidden="1">
+    <row r="181" spans="1:13">
       <c r="A181" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E181" s="3" t="s">
         <v>56</v>
@@ -9349,10 +9255,10 @@
         <v>2021</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I181" s="5">
         <v>1</v>
@@ -9364,24 +9270,24 @@
         <v>288</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="M181" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:13" hidden="1">
+    <row r="182" spans="1:13">
       <c r="A182" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E182" s="3" t="s">
         <v>63</v>
@@ -9390,19 +9296,19 @@
         <v>2021</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="L182" s="3" t="s">
         <v>6</v>
@@ -9411,18 +9317,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="183" spans="1:13" hidden="1">
+    <row r="183" spans="1:13">
       <c r="A183" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E183" s="3" t="s">
         <v>56</v>
@@ -9431,10 +9337,10 @@
         <v>2022</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -9446,24 +9352,24 @@
         <v>728</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="M183" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:13" hidden="1">
+    <row r="184" spans="1:13">
       <c r="A184" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E184" s="3" t="s">
         <v>56</v>
@@ -9472,10 +9378,10 @@
         <v>2022</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -9487,24 +9393,24 @@
         <v>728</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="M184" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:13" hidden="1">
+    <row r="185" spans="1:13">
       <c r="A185" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E185" s="3" t="s">
         <v>63</v>
@@ -9520,30 +9426,30 @@
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="M185" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="186" spans="1:13" hidden="1">
+    <row r="186" spans="1:13">
       <c r="A186" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E186" s="3" t="s">
         <v>56</v>
@@ -9552,39 +9458,39 @@
         <v>2022</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="M186" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:13" hidden="1">
+    <row r="187" spans="1:13">
       <c r="A187" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E187" s="3" t="s">
         <v>56</v>
@@ -9593,39 +9499,39 @@
         <v>2022</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
       </c>
       <c r="J187" s="3" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L187" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M187" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:13" hidden="1">
+    <row r="188" spans="1:13">
       <c r="A188" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E188" s="3" t="s">
         <v>56</v>
@@ -9634,19 +9540,19 @@
         <v>2022</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="L188" s="3" t="s">
         <v>6</v>
@@ -9655,18 +9561,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:13" hidden="1">
+    <row r="189" spans="1:13">
       <c r="A189" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E189" s="3" t="s">
         <v>56</v>
@@ -9675,39 +9581,39 @@
         <v>2022</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="M189" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:13" hidden="1">
+    <row r="190" spans="1:13">
       <c r="A190" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E190" s="3" t="s">
         <v>56</v>
@@ -9716,39 +9622,39 @@
         <v>2022</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I190" s="5">
         <v>2</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M190" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="191" spans="1:13" hidden="1">
+    <row r="191" spans="1:13">
       <c r="A191" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E191" s="3" t="s">
         <v>56</v>
@@ -9757,39 +9663,39 @@
         <v>2022</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="M191" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:13" hidden="1">
+    <row r="192" spans="1:13">
       <c r="A192" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E192" s="3" t="s">
         <v>56</v>
@@ -9798,30 +9704,30 @@
         <v>2023</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="M192" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:13" hidden="1">
+    <row r="193" spans="1:13">
       <c r="A193" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B193" s="3" t="s">
         <v>43</v>
@@ -9830,7 +9736,7 @@
         <v>43</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E193" s="3" t="s">
         <v>56</v>
@@ -9839,39 +9745,39 @@
         <v>2023</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="M193" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1">
+    <row r="194" spans="1:13">
       <c r="A194" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B194" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B194" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="C194" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E194" s="3" t="s">
         <v>56</v>
@@ -9880,39 +9786,39 @@
         <v>2023</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="M194" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" hidden="1">
+    <row r="195" spans="1:13" ht="22.5">
       <c r="A195" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>1</v>
@@ -9921,39 +9827,39 @@
         <v>2019</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
       </c>
       <c r="J195" s="3" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="L195" s="3" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M195" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="22.5" hidden="1">
+    <row r="196" spans="1:13" ht="22.5">
       <c r="A196" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="E196" s="3" t="s">
         <v>63</v>
@@ -9962,34 +9868,34 @@
         <v>2024</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="M196" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1">
+    <row r="197" spans="1:13">
       <c r="A197" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="3" t="s">
@@ -10006,27 +9912,27 @@
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M197" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="198" spans="1:13" hidden="1">
+    <row r="198" spans="1:13">
       <c r="A198" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D198" s="8"/>
       <c r="E198" s="3" t="s">
@@ -10043,27 +9949,27 @@
       </c>
       <c r="I198" s="8"/>
       <c r="J198" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="M198" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="199" spans="1:13" hidden="1">
+    <row r="199" spans="1:13">
       <c r="A199" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D199" s="8"/>
       <c r="E199" s="3" t="s">
@@ -10080,24 +9986,24 @@
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="M199" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="200" spans="1:13" hidden="1">
+    <row r="200" spans="1:13">
       <c r="A200" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -10108,30 +10014,30 @@
         <v>2019</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
       <c r="L200" s="3" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M200" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:13" hidden="1">
+    <row r="201" spans="1:13">
       <c r="A201" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="3" t="s">
@@ -10148,27 +10054,27 @@
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="M201" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="202" spans="1:13" hidden="1">
+    <row r="202" spans="1:13">
       <c r="A202" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="3" t="s">
@@ -10185,27 +10091,27 @@
       </c>
       <c r="I202" s="8"/>
       <c r="J202" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="M202" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="203" spans="1:13" hidden="1">
+    <row r="203" spans="1:13">
       <c r="A203" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="3" t="s">
@@ -10222,27 +10128,27 @@
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="M203" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="204" spans="1:13" hidden="1">
+    <row r="204" spans="1:13">
       <c r="A204" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="3" t="s">
@@ -10259,27 +10165,27 @@
       </c>
       <c r="I204" s="8"/>
       <c r="J204" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M204" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="22.5" hidden="1">
+    <row r="205" spans="1:13" ht="22.5">
       <c r="A205" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="3" t="s">
@@ -10298,27 +10204,27 @@
         <v>1</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>475</v>
+        <v>464</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M205" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1">
+    <row r="206" spans="1:13">
       <c r="A206" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="3" t="s">
@@ -10335,27 +10241,27 @@
       </c>
       <c r="I206" s="8"/>
       <c r="J206" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="M206" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:13" hidden="1">
+    <row r="207" spans="1:13">
       <c r="A207" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="3" t="s">
@@ -10372,24 +10278,24 @@
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="M207" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1">
+    <row r="208" spans="1:13">
       <c r="A208" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>31</v>
@@ -10411,29 +10317,20 @@
         <v>1</v>
       </c>
       <c r="J208" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L208" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="K208" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="L208" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="M208" s="9" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M208" xr:uid="{6D29D63D-E21F-436E-B915-EEA2BA66BF65}">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="Line"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M106">
-      <sortCondition descending="1" ref="G1:G208"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:M208" xr:uid="{6D29D63D-E21F-436E-B915-EEA2BA66BF65}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Data/Transmission/Figure 22 Firm Transmission Plans included in 2020 RNA Base Case.xlsx
+++ b/Data/Transmission/Figure 22 Firm Transmission Plans included in 2020 RNA Base Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EERL\NY-Simple-Net\NY-Simple-Net-main\Data\Transmission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46378342-A1F0-4492-B4E1-697690CCC2BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A39B09-12DD-48E3-94A2-8B3117B500DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="43995" yWindow="0" windowWidth="23115" windowHeight="22950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>In-Service Date Prior to Year</t>
-  </si>
-  <si>
-    <t>Terminal I</t>
-  </si>
-  <si>
-    <t>Terminal II</t>
   </si>
   <si>
     <t>Category</t>
@@ -1464,6 +1458,12 @@
   </si>
   <si>
     <t>Remove 115 substation and terminate existing lines to Oakdale 115 (short distance)</t>
+  </si>
+  <si>
+    <t>Terminal 1</t>
+  </si>
+  <si>
+    <t>Terminal 2</t>
   </si>
 </sst>
 </file>
@@ -1906,8 +1906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1927,16 +1927,16 @@
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" ht="36" customHeight="1">
       <c r="A1" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>3</v>
+        <v>469</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>4</v>
+        <v>470</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>1</v>
@@ -1945,42 +1945,42 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D2" s="4">
         <v>-70.2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F2" s="5">
         <v>2020</v>
@@ -2001,27 +2001,27 @@
         <v>2662</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D3" s="4">
         <v>-44</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="5">
         <v>2020</v>
@@ -2042,27 +2042,27 @@
         <v>2662</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D4" s="6">
         <v>-9.5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F4" s="5">
         <v>2021</v>
@@ -2083,27 +2083,27 @@
         <v>3211</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D5" s="4">
         <v>3.8</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F5" s="5">
         <v>2020</v>
@@ -2124,27 +2124,27 @@
         <v>2662</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4">
         <v>3.8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F6" s="5">
         <v>2020</v>
@@ -2165,27 +2165,27 @@
         <v>2662</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D7" s="5">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7" s="5">
         <v>2021</v>
@@ -2206,27 +2206,27 @@
         <v>3211</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D8" s="6">
         <v>5.5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F8" s="5">
         <v>2021</v>
@@ -2247,27 +2247,27 @@
         <v>3211</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4">
         <v>40.200000000000003</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="5">
         <v>2020</v>
@@ -2288,27 +2288,27 @@
         <v>2662</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4">
         <v>66.400000000000006</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5">
         <v>2020</v>
@@ -2329,27 +2329,27 @@
         <v>2662</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D11" s="5">
         <v>78</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" s="5">
         <v>2023</v>
@@ -2370,21 +2370,21 @@
         <v>1329</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D12" s="4">
         <v>-11.86</v>
@@ -2411,21 +2411,21 @@
         <v>2565</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4">
         <v>4.8099999999999996</v>
@@ -2452,27 +2452,27 @@
         <v>2565</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4">
         <v>5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F14" s="5">
         <v>2023</v>
@@ -2493,27 +2493,27 @@
         <v>940</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D15" s="4">
         <v>5</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5">
         <v>2024</v>
@@ -2534,27 +2534,27 @@
         <v>2120</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D16" s="4">
         <v>5.5</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F16" s="5">
         <v>2022</v>
@@ -2575,27 +2575,27 @@
         <v>2120</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D17" s="4">
         <v>7.36</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17" s="5">
         <v>2021</v>
@@ -2616,21 +2616,21 @@
         <v>1171</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D18" s="4">
         <v>8.25</v>
@@ -2657,27 +2657,27 @@
         <v>2565</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D19" s="4">
         <v>10.63</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F19" s="5">
         <v>2021</v>
@@ -2698,27 +2698,27 @@
         <v>1709</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D20" s="4">
         <v>11</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F20" s="5">
         <v>2026</v>
@@ -2739,27 +2739,27 @@
         <v>1171</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D21" s="4">
         <v>16.489999999999998</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F21" s="5">
         <v>2021</v>
@@ -2780,27 +2780,27 @@
         <v>1110</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D22" s="4">
         <v>17</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F22" s="5">
         <v>2024</v>
@@ -2821,21 +2821,21 @@
         <v>2120</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D23" s="4">
         <v>-34.47</v>
@@ -2862,27 +2862,27 @@
         <v>1141</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D24" s="4">
         <v>-34.21</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24" s="5">
         <v>2020</v>
@@ -2903,27 +2903,27 @@
         <v>1070</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4">
         <v>-32.74</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25" s="5">
         <v>2020</v>
@@ -2944,21 +2944,21 @@
         <v>1416</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D26" s="4">
         <v>-26.74</v>
@@ -2985,21 +2985,21 @@
         <v>1141</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" s="4">
         <v>-22.72</v>
@@ -3026,27 +3026,27 @@
         <v>1141</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="4">
         <v>0.08</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28" s="5">
         <v>2021</v>
@@ -3061,33 +3061,33 @@
         <v>2</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="M28" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D29" s="6">
         <v>0.2</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F29" s="5">
         <v>2023</v>
@@ -3102,33 +3102,33 @@
         <v>1</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F30" s="5">
         <v>2024</v>
@@ -3143,27 +3143,27 @@
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>103</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D31" s="4">
         <v>1.34</v>
@@ -3184,33 +3184,33 @@
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="4">
         <v>1.46</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="5">
         <v>2020</v>
@@ -3231,27 +3231,27 @@
         <v>2008</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D33" s="4">
         <v>2.0499999999999998</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" s="5">
         <v>2020</v>
@@ -3272,27 +3272,27 @@
         <v>1218</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D34" s="4">
         <v>2.94</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F34" s="5">
         <v>2024</v>
@@ -3313,27 +3313,27 @@
         <v>1359</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D35" s="4">
         <v>2.97</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F35" s="5">
         <v>2020</v>
@@ -3354,27 +3354,27 @@
         <v>2008</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D36" s="5">
         <v>3</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F36" s="5">
         <v>2023</v>
@@ -3389,33 +3389,33 @@
         <v>1</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D37" s="5">
         <v>3</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37" s="5">
         <v>2023</v>
@@ -3430,33 +3430,33 @@
         <v>1</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D38" s="6">
         <v>3.4</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F38" s="5">
         <v>2021</v>
@@ -3471,33 +3471,33 @@
         <v>1</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="M38" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D39" s="4">
         <v>3.5</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F39" s="5">
         <v>2019</v>
@@ -3512,33 +3512,33 @@
         <v>1</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D40" s="6">
         <v>3.7</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F40" s="5">
         <v>2022</v>
@@ -3553,33 +3553,33 @@
         <v>1</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D41" s="6">
         <v>3.7</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F41" s="5">
         <v>2022</v>
@@ -3594,33 +3594,33 @@
         <v>2</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D42" s="4">
         <v>4.62</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F42" s="5">
         <v>2022</v>
@@ -3641,27 +3641,27 @@
         <v>1245</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="3" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D43" s="6">
         <v>5.5</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" s="5">
         <v>2026</v>
@@ -3676,33 +3676,33 @@
         <v>1</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D44" s="4">
         <v>5.61</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="5">
         <v>2022</v>
@@ -3723,21 +3723,21 @@
         <v>1245</v>
       </c>
       <c r="L44" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45" s="4">
         <v>6.14</v>
@@ -3764,27 +3764,27 @@
         <v>1527</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46" s="6">
         <v>6.3</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F46" s="5">
         <v>2022</v>
@@ -3799,27 +3799,27 @@
         <v>1</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>61</v>
-      </c>
       <c r="C47" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D47" s="4">
         <v>6.34</v>
@@ -3846,27 +3846,27 @@
         <v>1563</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D48" s="6">
         <v>6.9</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F48" s="5">
         <v>2020</v>
@@ -3887,27 +3887,27 @@
         <v>1380</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D49" s="5">
         <v>7</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F49" s="5">
         <v>2020</v>
@@ -3928,27 +3928,27 @@
         <v>856</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D50" s="5">
         <v>7</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F50" s="5">
         <v>2020</v>
@@ -3965,27 +3965,27 @@
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D51" s="4">
         <v>7.14</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F51" s="5">
         <v>2020</v>
@@ -4006,27 +4006,27 @@
         <v>955</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52" s="6">
         <v>7.6</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="5">
         <v>2024</v>
@@ -4041,33 +4041,33 @@
         <v>1</v>
       </c>
       <c r="J52" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>177</v>
-      </c>
       <c r="M52" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D53" s="4">
         <v>8.07</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="5">
         <v>2020</v>
@@ -4082,27 +4082,27 @@
         <v>1</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D54" s="4">
         <v>8.41</v>
@@ -4129,27 +4129,27 @@
         <v>1141</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D55" s="4">
         <v>8.9600000000000009</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="5">
         <v>2022</v>
@@ -4170,27 +4170,27 @@
         <v>1245</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D56" s="6">
         <v>9.1</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="5">
         <v>2023</v>
@@ -4205,33 +4205,33 @@
         <v>1</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D57" s="6">
         <v>9.1</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57" s="5">
         <v>2023</v>
@@ -4246,27 +4246,27 @@
         <v>1</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="4">
         <v>9.41</v>
@@ -4287,33 +4287,33 @@
         <v>1</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D59" s="4">
         <v>9.6</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F59" s="5">
         <v>2020</v>
@@ -4334,27 +4334,27 @@
         <v>1807</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D60" s="4">
         <v>9.81</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F60" s="5">
         <v>2025</v>
@@ -4375,27 +4375,27 @@
         <v>1708</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D61" s="4">
         <v>9.81</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F61" s="5">
         <v>2025</v>
@@ -4416,27 +4416,27 @@
         <v>1708</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D62" s="4">
         <v>10.029999999999999</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F62" s="5">
         <v>2022</v>
@@ -4457,27 +4457,27 @@
         <v>1245</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D63" s="4">
         <v>10.24</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F63" s="5">
         <v>2021</v>
@@ -4492,33 +4492,33 @@
         <v>1</v>
       </c>
       <c r="J63" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="L63" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="K63" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="M63" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D64" s="4">
         <v>10.3</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F64" s="5">
         <v>2022</v>
@@ -4533,33 +4533,33 @@
         <v>2</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D65" s="4">
         <v>11.05</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F65" s="5">
         <v>2020</v>
@@ -4580,27 +4580,27 @@
         <v>2392</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D66" s="4">
         <v>11.1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F66" s="5">
         <v>2020</v>
@@ -4621,27 +4621,27 @@
         <v>1807</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D67" s="4">
         <v>12.1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F67" s="5">
         <v>2022</v>
@@ -4656,33 +4656,33 @@
         <v>1</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D68" s="4">
         <v>12.49</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F68" s="5">
         <v>2020</v>
@@ -4703,27 +4703,27 @@
         <v>1070</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D69" s="4">
         <v>12.75</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F69" s="5">
         <v>2021</v>
@@ -4738,27 +4738,27 @@
         <v>1</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D70" s="4">
         <v>14.31</v>
@@ -4785,27 +4785,27 @@
         <v>1141</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D71" s="6">
         <v>15.7</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F71" s="5">
         <v>2026</v>
@@ -4820,25 +4820,25 @@
         <v>2</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L71" s="8"/>
       <c r="M71" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="4">
         <v>17.329999999999998</v>
@@ -4859,33 +4859,33 @@
         <v>1</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D73" s="6">
         <v>20.5</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F73" s="5">
         <v>2024</v>
@@ -4906,27 +4906,27 @@
         <v>1346</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D74" s="4">
         <v>21.69</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F74" s="5">
         <v>2020</v>
@@ -4947,27 +4947,27 @@
         <v>1416</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D75" s="4">
         <v>21.72</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F75" s="5">
         <v>2020</v>
@@ -4988,27 +4988,27 @@
         <v>1118</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D76" s="6">
         <v>26.3</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F76" s="5">
         <v>2026</v>
@@ -5023,33 +5023,33 @@
         <v>1</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D77" s="6">
         <v>26.4</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F77" s="5">
         <v>2022</v>
@@ -5064,27 +5064,27 @@
         <v>1</v>
       </c>
       <c r="J77" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K77" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="M77" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D78" s="4">
         <v>28.13</v>
@@ -5111,27 +5111,27 @@
         <v>1141</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D79" s="6">
         <v>28.2</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F79" s="5">
         <v>2026</v>
@@ -5146,33 +5146,33 @@
         <v>2</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="L79" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D80" s="6">
         <v>28.6</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F80" s="5">
         <v>2022</v>
@@ -5187,33 +5187,33 @@
         <v>1</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="L80" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D81" s="6">
         <v>45.5</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F81" s="5">
         <v>2022</v>
@@ -5228,33 +5228,33 @@
         <v>1</v>
       </c>
       <c r="J81" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L81" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="L81" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="M81" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D82" s="6">
         <v>56.5</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F82" s="5">
         <v>2022</v>
@@ -5269,33 +5269,33 @@
         <v>3</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D83" s="4">
         <v>-3.11</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F83" s="5">
         <v>2020</v>
@@ -5316,21 +5316,21 @@
         <v>601</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D84" s="4">
         <v>-2.92</v>
@@ -5357,27 +5357,27 @@
         <v>1245</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D85" s="4">
         <v>0.93</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F85" s="5">
         <v>2024</v>
@@ -5398,27 +5398,27 @@
         <v>1359</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D86" s="4">
         <v>0.93</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F86" s="5">
         <v>2024</v>
@@ -5439,21 +5439,21 @@
         <v>1359</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D87" s="4">
         <v>0.97</v>
@@ -5480,21 +5480,21 @@
         <v>1245</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D88" s="4">
         <v>1.95</v>
@@ -5521,27 +5521,27 @@
         <v>1245</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D89" s="5">
         <v>2</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F89" s="5">
         <v>2021</v>
@@ -5561,24 +5561,24 @@
       </c>
       <c r="L89" s="8"/>
       <c r="M89" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D90" s="4">
         <v>2</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F90" s="5">
         <v>2023</v>
@@ -5599,27 +5599,27 @@
         <v>1723</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D91" s="4">
         <v>2.11</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F91" s="5">
         <v>2020</v>
@@ -5640,27 +5640,27 @@
         <v>601</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D92" s="4">
         <v>2.5</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F92" s="5">
         <v>2020</v>
@@ -5681,27 +5681,27 @@
         <v>601</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D93" s="4">
         <v>3.2</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F93" s="5">
         <v>2020</v>
@@ -5722,27 +5722,27 @@
         <v>1312</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D94" s="4">
         <v>4</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F94" s="5">
         <v>2025</v>
@@ -5763,21 +5763,21 @@
         <v>1171</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D95" s="4">
         <v>5.2</v>
@@ -5804,27 +5804,27 @@
         <v>1169</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D96" s="5">
         <v>7</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F96" s="5">
         <v>2021</v>
@@ -5844,24 +5844,24 @@
       </c>
       <c r="L96" s="8"/>
       <c r="M96" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97" s="4">
         <v>7</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F97" s="5">
         <v>2026</v>
@@ -5882,27 +5882,27 @@
         <v>1723</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D98" s="4">
         <v>11.4</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F98" s="5">
         <v>2022</v>
@@ -5923,27 +5923,27 @@
         <v>1359</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D99" s="4">
         <v>12</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F99" s="5">
         <v>2023</v>
@@ -5964,27 +5964,27 @@
         <v>1141</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D100" s="4">
         <v>12.46</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F100" s="5">
         <v>2023</v>
@@ -6005,27 +6005,27 @@
         <v>1359</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D101" s="4">
         <v>-1.59</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F101" s="5">
         <v>2020</v>
@@ -6046,27 +6046,27 @@
         <v>816</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D102" s="4">
         <v>1.82</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F102" s="5">
         <v>2020</v>
@@ -6087,27 +6087,27 @@
         <v>457</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D103" s="4">
         <v>2.04</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F103" s="5">
         <v>2020</v>
@@ -6128,27 +6128,27 @@
         <v>816</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M103" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B104" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D104" s="4">
         <v>-13</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F104" s="5">
         <v>2021</v>
@@ -6169,27 +6169,27 @@
         <v>657</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C105" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B105" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D105" s="4">
         <v>0.26</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F105" s="5">
         <v>2021</v>
@@ -6210,27 +6210,27 @@
         <v>657</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D106" s="4">
         <v>12.74</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F106" s="5">
         <v>2021</v>
@@ -6251,27 +6251,27 @@
         <v>657</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F107" s="5">
         <v>2019</v>
@@ -6286,33 +6286,33 @@
         <v>1</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M107" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F108" s="5">
         <v>2019</v>
@@ -6327,30 +6327,30 @@
         <v>1</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M108" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E109" s="3" t="s">
         <v>1</v>
@@ -6359,42 +6359,42 @@
         <v>2019</v>
       </c>
       <c r="G109" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L109" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H109" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>237</v>
-      </c>
       <c r="M109" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F110" s="5">
         <v>2020</v>
@@ -6407,33 +6407,33 @@
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F111" s="5">
         <v>2020</v>
@@ -6448,74 +6448,74 @@
         <v>2</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F112" s="5">
         <v>2020</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F113" s="5">
         <v>2020</v>
@@ -6528,33 +6528,33 @@
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M113" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F114" s="5">
         <v>2021</v>
@@ -6566,36 +6566,36 @@
         <v>230</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F115" s="5">
         <v>2021</v>
@@ -6608,33 +6608,33 @@
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F116" s="5">
         <v>2021</v>
@@ -6647,74 +6647,74 @@
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F117" s="5">
         <v>2021</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M117" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F118" s="5">
         <v>2022</v>
@@ -6729,33 +6729,33 @@
         <v>1</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M118" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F119" s="5">
         <v>2022</v>
@@ -6768,33 +6768,33 @@
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M119" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F120" s="5">
         <v>2022</v>
@@ -6806,36 +6806,36 @@
         <v>115</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M120" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F121" s="5">
         <v>2022</v>
@@ -6847,36 +6847,36 @@
         <v>115</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M121" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F122" s="5">
         <v>2022</v>
@@ -6888,118 +6888,118 @@
         <v>115</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M122" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F123" s="5">
         <v>2023</v>
       </c>
       <c r="G123" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K123" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H123" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J123" s="3" t="s">
+      <c r="L123" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="K123" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L123" s="3" t="s">
-        <v>260</v>
-      </c>
       <c r="M123" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F124" s="5">
         <v>2023</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M124" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F125" s="5">
         <v>2023</v>
@@ -7011,36 +7011,36 @@
         <v>115</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M125" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F126" s="5">
         <v>2023</v>
@@ -7052,36 +7052,36 @@
         <v>115</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J126" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L126" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M126" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="22.5">
       <c r="A127" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F127" s="5">
         <v>2024</v>
@@ -7096,33 +7096,33 @@
         <v>2</v>
       </c>
       <c r="J127" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L127" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M127" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="22.5">
       <c r="A128" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F128" s="5">
         <v>2024</v>
@@ -7137,33 +7137,33 @@
         <v>2</v>
       </c>
       <c r="J128" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L128" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M128" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F129" s="5">
         <v>2024</v>
@@ -7176,33 +7176,33 @@
       </c>
       <c r="I129" s="8"/>
       <c r="J129" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M129" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F130" s="5">
         <v>2024</v>
@@ -7214,36 +7214,36 @@
         <v>115</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J130" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="L130" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="K130" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="L130" s="3" t="s">
-        <v>272</v>
-      </c>
       <c r="M130" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F131" s="5">
         <v>2026</v>
@@ -7260,27 +7260,27 @@
       <c r="J131" s="8"/>
       <c r="K131" s="8"/>
       <c r="L131" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="M131" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="22.5">
       <c r="A132" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F132" s="5">
         <v>2020</v>
@@ -7301,27 +7301,27 @@
         <v>234</v>
       </c>
       <c r="L132" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M132" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F133" s="5">
         <v>2020</v>
@@ -7336,30 +7336,30 @@
         <v>1</v>
       </c>
       <c r="J133" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L133" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M133" s="9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>1</v>
@@ -7375,33 +7375,33 @@
       </c>
       <c r="I134" s="8"/>
       <c r="J134" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L134" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="M134" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F135" s="5">
         <v>2020</v>
@@ -7416,33 +7416,33 @@
         <v>1</v>
       </c>
       <c r="J135" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L135" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M135" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F136" s="5">
         <v>2024</v>
@@ -7454,7 +7454,7 @@
         <v>115</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J136" s="5">
         <v>2000</v>
@@ -7463,24 +7463,24 @@
         <v>2000</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M136" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E137" s="3" t="s">
         <v>1</v>
@@ -7498,30 +7498,30 @@
         <v>1</v>
       </c>
       <c r="J137" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L137" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M137" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E138" s="3" t="s">
         <v>1</v>
@@ -7539,33 +7539,33 @@
         <v>1</v>
       </c>
       <c r="J138" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="L138" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="M138" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F139" s="5">
         <v>2020</v>
@@ -7580,33 +7580,33 @@
         <v>1</v>
       </c>
       <c r="J139" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L139" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K139" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="M139" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F140" s="5">
         <v>2020</v>
@@ -7621,33 +7621,33 @@
         <v>1</v>
       </c>
       <c r="J140" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L140" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M140" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F141" s="5">
         <v>2021</v>
@@ -7662,33 +7662,33 @@
         <v>1</v>
       </c>
       <c r="J141" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="L141" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="K141" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="L141" s="3" t="s">
-        <v>288</v>
-      </c>
       <c r="M141" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F142" s="5">
         <v>2021</v>
@@ -7703,33 +7703,33 @@
         <v>1</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M142" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F143" s="5">
         <v>2024</v>
@@ -7744,30 +7744,30 @@
         <v>1</v>
       </c>
       <c r="J143" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L143" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M143" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>1</v>
@@ -7785,33 +7785,33 @@
         <v>1</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M144" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="145" spans="1:13">
       <c r="A145" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F145" s="5">
         <v>2026</v>
@@ -7826,33 +7826,33 @@
         <v>1</v>
       </c>
       <c r="J145" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M145" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:13">
       <c r="A146" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F146" s="5">
         <v>2022</v>
@@ -7865,33 +7865,33 @@
       </c>
       <c r="I146" s="8"/>
       <c r="J146" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M146" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:13">
       <c r="A147" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F147" s="5">
         <v>2022</v>
@@ -7906,27 +7906,27 @@
       <c r="J147" s="8"/>
       <c r="K147" s="8"/>
       <c r="L147" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M147" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="1:13">
       <c r="A148" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F148" s="5">
         <v>2022</v>
@@ -7941,24 +7941,24 @@
       <c r="J148" s="8"/>
       <c r="K148" s="8"/>
       <c r="L148" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M148" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:13">
       <c r="A149" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>1</v>
@@ -7974,30 +7974,30 @@
       </c>
       <c r="I149" s="8"/>
       <c r="J149" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M149" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:13">
       <c r="A150" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>1</v>
@@ -8013,30 +8013,30 @@
       </c>
       <c r="I150" s="8"/>
       <c r="J150" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L150" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M150" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:13">
       <c r="A151" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>1</v>
@@ -8052,30 +8052,30 @@
       </c>
       <c r="I151" s="8"/>
       <c r="J151" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L151" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M151" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:13">
       <c r="A152" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>1</v>
@@ -8093,33 +8093,33 @@
         <v>1</v>
       </c>
       <c r="J152" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L152" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M152" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F153" s="5">
         <v>2020</v>
@@ -8132,33 +8132,33 @@
       </c>
       <c r="I153" s="8"/>
       <c r="J153" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L153" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="M153" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="154" spans="1:13">
       <c r="A154" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F154" s="5">
         <v>2024</v>
@@ -8171,33 +8171,33 @@
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L154" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M154" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="155" spans="1:13">
       <c r="A155" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F155" s="5">
         <v>2024</v>
@@ -8210,33 +8210,33 @@
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L155" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M155" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="22.5">
       <c r="A156" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F156" s="5">
         <v>2022</v>
@@ -8249,33 +8249,33 @@
       </c>
       <c r="I156" s="8"/>
       <c r="J156" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L156" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M156" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="22.5">
       <c r="A157" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F157" s="5">
         <v>2024</v>
@@ -8288,33 +8288,33 @@
       </c>
       <c r="I157" s="8"/>
       <c r="J157" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L157" s="3" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M157" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="22.5">
       <c r="A158" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F158" s="5">
         <v>2021</v>
@@ -8326,36 +8326,36 @@
         <v>230</v>
       </c>
       <c r="I158" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J158" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="L158" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="M158" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:13">
       <c r="A159" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F159" s="5">
         <v>2021</v>
@@ -8370,31 +8370,31 @@
         <v>2</v>
       </c>
       <c r="J159" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L159" s="8"/>
       <c r="M159" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:13">
       <c r="A160" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F160" s="5">
         <v>2020</v>
@@ -8409,33 +8409,33 @@
         <v>1</v>
       </c>
       <c r="J160" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L160" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M160" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="22.5">
       <c r="A161" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F161" s="5">
         <v>2021</v>
@@ -8456,24 +8456,24 @@
         <v>2866</v>
       </c>
       <c r="L161" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M161" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:13">
       <c r="A162" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>1</v>
@@ -8489,30 +8489,30 @@
       </c>
       <c r="I162" s="8"/>
       <c r="J162" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L162" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M162" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>1</v>
@@ -8528,30 +8528,30 @@
       </c>
       <c r="I163" s="8"/>
       <c r="J163" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L163" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M163" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:13">
       <c r="A164" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>1</v>
@@ -8560,39 +8560,39 @@
         <v>2019</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I164" s="5">
         <v>2</v>
       </c>
       <c r="J164" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L164" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="K164" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="L164" s="3" t="s">
-        <v>327</v>
-      </c>
       <c r="M164" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="165" spans="1:13">
       <c r="A165" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E165" s="3" t="s">
         <v>1</v>
@@ -8601,39 +8601,39 @@
         <v>2019</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I165" s="5">
         <v>1</v>
       </c>
       <c r="J165" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="L165" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K165" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="L165" s="3" t="s">
-        <v>330</v>
-      </c>
       <c r="M165" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="22.5">
       <c r="A166" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E166" s="3" t="s">
         <v>1</v>
@@ -8642,92 +8642,92 @@
         <v>2019</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H166" s="8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I166" s="5">
         <v>2</v>
       </c>
       <c r="J166" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L166" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M166" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="167" spans="1:13">
       <c r="A167" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F167" s="5">
         <v>2019</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I167" s="5">
         <v>2</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="L167" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M167" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:13">
       <c r="A168" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F168" s="5">
         <v>2020</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I168" s="5">
         <v>1</v>
@@ -8739,36 +8739,36 @@
         <v>728</v>
       </c>
       <c r="L168" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="M168" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169" spans="1:13">
       <c r="A169" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F169" s="5">
         <v>2020</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I169" s="5">
         <v>2</v>
@@ -8780,200 +8780,200 @@
         <v>726</v>
       </c>
       <c r="L169" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M169" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F170" s="5">
         <v>2020</v>
       </c>
       <c r="G170" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="I170" s="5">
+        <v>1</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K170" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="H170" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="I170" s="5">
-        <v>1</v>
-      </c>
-      <c r="J170" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="K170" s="3" t="s">
-        <v>259</v>
-      </c>
       <c r="L170" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M170" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:13">
       <c r="A171" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F171" s="5">
         <v>2020</v>
       </c>
       <c r="G171" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K171" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H171" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I171" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J171" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K171" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="L171" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M171" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:13">
       <c r="A172" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F172" s="5">
         <v>2020</v>
       </c>
       <c r="G172" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="I172" s="5">
+        <v>1</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="K172" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="H172" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="I172" s="5">
-        <v>1</v>
-      </c>
-      <c r="J172" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K172" s="3" t="s">
-        <v>345</v>
-      </c>
       <c r="L172" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M172" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F173" s="5">
         <v>2020</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I173" s="5">
         <v>1</v>
       </c>
       <c r="J173" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L173" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M173" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:13">
       <c r="A174" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F174" s="5">
         <v>2020</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I174" s="5">
         <v>1</v>
@@ -8985,191 +8985,191 @@
         <v>731</v>
       </c>
       <c r="L174" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M174" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:13">
       <c r="A175" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F175" s="5">
         <v>2020</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I175" s="5">
         <v>1</v>
       </c>
       <c r="J175" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="L175" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M175" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:13">
       <c r="A176" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F176" s="5">
         <v>2020</v>
       </c>
       <c r="G176" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I176" s="5">
+        <v>1</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="K176" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="H176" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="I176" s="5">
-        <v>1</v>
-      </c>
-      <c r="J176" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="K176" s="3" t="s">
-        <v>353</v>
-      </c>
       <c r="L176" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M176" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F177" s="5">
         <v>2020</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I177" s="5">
         <v>2</v>
       </c>
       <c r="J177" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L177" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M177" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="178" spans="1:13">
       <c r="A178" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F178" s="5">
         <v>2021</v>
       </c>
       <c r="G178" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K178" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="H178" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I178" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="J178" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="K178" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="L178" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M178" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:13">
       <c r="A179" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F179" s="5">
         <v>2021</v>
@@ -9182,83 +9182,83 @@
       </c>
       <c r="I179" s="8"/>
       <c r="J179" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L179" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M179" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F180" s="5">
         <v>2021</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I180" s="5">
         <v>1</v>
       </c>
       <c r="J180" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L180" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="M180" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="181" spans="1:13">
       <c r="A181" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F181" s="5">
         <v>2021</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I181" s="5">
         <v>1</v>
@@ -9270,77 +9270,77 @@
         <v>288</v>
       </c>
       <c r="L181" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M181" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:13">
       <c r="A182" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F182" s="5">
         <v>2021</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I182" s="5">
         <v>1</v>
       </c>
       <c r="J182" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L182" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M182" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:13">
       <c r="A183" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F183" s="5">
         <v>2022</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I183" s="5">
         <v>1</v>
@@ -9352,36 +9352,36 @@
         <v>728</v>
       </c>
       <c r="L183" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M183" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:13">
       <c r="A184" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F184" s="5">
         <v>2022</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I184" s="5">
         <v>1</v>
@@ -9393,27 +9393,27 @@
         <v>728</v>
       </c>
       <c r="L184" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M184" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185" spans="1:13">
       <c r="A185" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F185" s="5">
         <v>2022</v>
@@ -9426,399 +9426,399 @@
       </c>
       <c r="I185" s="8"/>
       <c r="J185" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="M185" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F186" s="5">
         <v>2022</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I186" s="5">
         <v>1</v>
       </c>
       <c r="J186" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L186" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M186" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:13">
       <c r="A187" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F187" s="5">
         <v>2022</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I187" s="5">
         <v>1</v>
       </c>
       <c r="J187" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="L187" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="K187" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="L187" s="3" t="s">
-        <v>363</v>
-      </c>
       <c r="M187" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F188" s="5">
         <v>2022</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I188" s="5">
         <v>1</v>
       </c>
       <c r="J188" s="3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L188" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M188" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:13">
       <c r="A189" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F189" s="5">
         <v>2022</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I189" s="5">
         <v>1</v>
       </c>
       <c r="J189" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L189" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M189" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:13">
       <c r="A190" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F190" s="5">
         <v>2022</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I190" s="5">
         <v>2</v>
       </c>
       <c r="J190" s="3" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L190" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M190" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:13">
       <c r="A191" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F191" s="5">
         <v>2022</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I191" s="5">
         <v>1</v>
       </c>
       <c r="J191" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L191" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M191" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:13">
       <c r="A192" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F192" s="5">
         <v>2023</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I192" s="5">
         <v>1</v>
       </c>
       <c r="J192" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L192" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="M192" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="193" spans="1:13">
       <c r="A193" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F193" s="5">
         <v>2023</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I193" s="5">
         <v>1</v>
       </c>
       <c r="J193" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L193" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M193" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="194" spans="1:13">
       <c r="A194" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F194" s="5">
         <v>2023</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="I194" s="5">
         <v>1</v>
       </c>
       <c r="J194" s="3" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L194" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M194" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="22.5">
       <c r="A195" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E195" s="3" t="s">
         <v>1</v>
@@ -9827,75 +9827,75 @@
         <v>2019</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I195" s="5">
         <v>1</v>
       </c>
       <c r="J195" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L195" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="K195" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="L195" s="3" t="s">
-        <v>382</v>
-      </c>
       <c r="M195" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="22.5">
       <c r="A196" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F196" s="5">
         <v>2024</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="I196" s="8"/>
       <c r="J196" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L196" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M196" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="197" spans="1:13">
       <c r="A197" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D197" s="8"/>
       <c r="E197" s="3" t="s">
@@ -9912,27 +9912,27 @@
       </c>
       <c r="I197" s="8"/>
       <c r="J197" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L197" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="M197" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:13">
       <c r="A198" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D198" s="8"/>
       <c r="E198" s="3" t="s">
@@ -9949,27 +9949,27 @@
       </c>
       <c r="I198" s="8"/>
       <c r="J198" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L198" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M198" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:13">
       <c r="A199" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D199" s="8"/>
       <c r="E199" s="3" t="s">
@@ -9986,24 +9986,24 @@
       </c>
       <c r="I199" s="8"/>
       <c r="J199" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L199" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M199" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="200" spans="1:13">
       <c r="A200" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C200" s="8"/>
       <c r="D200" s="8"/>
@@ -10014,34 +10014,34 @@
         <v>2019</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I200" s="8"/>
       <c r="J200" s="8"/>
       <c r="K200" s="8"/>
       <c r="L200" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="M200" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:13">
       <c r="A201" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D201" s="8"/>
       <c r="E201" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F201" s="5">
         <v>2020</v>
@@ -10054,31 +10054,31 @@
       </c>
       <c r="I201" s="8"/>
       <c r="J201" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L201" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="M201" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="202" spans="1:13">
       <c r="A202" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D202" s="8"/>
       <c r="E202" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F202" s="5">
         <v>2020</v>
@@ -10091,31 +10091,31 @@
       </c>
       <c r="I202" s="8"/>
       <c r="J202" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L202" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M202" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:13">
       <c r="A203" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D203" s="8"/>
       <c r="E203" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F203" s="5">
         <v>2020</v>
@@ -10128,31 +10128,31 @@
       </c>
       <c r="I203" s="8"/>
       <c r="J203" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L203" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M203" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:13">
       <c r="A204" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D204" s="8"/>
       <c r="E204" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F204" s="5">
         <v>2020</v>
@@ -10165,31 +10165,31 @@
       </c>
       <c r="I204" s="8"/>
       <c r="J204" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L204" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M204" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="22.5">
       <c r="A205" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F205" s="5">
         <v>2020</v>
@@ -10204,31 +10204,31 @@
         <v>1</v>
       </c>
       <c r="J205" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L205" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M205" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="206" spans="1:13">
       <c r="A206" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F206" s="5">
         <v>2021</v>
@@ -10241,31 +10241,31 @@
       </c>
       <c r="I206" s="8"/>
       <c r="J206" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L206" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="M206" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:13">
       <c r="A207" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F207" s="5">
         <v>2022</v>
@@ -10278,31 +10278,31 @@
       </c>
       <c r="I207" s="8"/>
       <c r="J207" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L207" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M207" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F208" s="5">
         <v>2024</v>
@@ -10317,16 +10317,16 @@
         <v>1</v>
       </c>
       <c r="J208" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L208" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M208" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
